--- a/biology/Zoologie/Chondrodactylus_fitzsimonsi/Chondrodactylus_fitzsimonsi.xlsx
+++ b/biology/Zoologie/Chondrodactylus_fitzsimonsi/Chondrodactylus_fitzsimonsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chondrodactylus fitzsimonsi est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chondrodactylus fitzsimonsi est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Angola et en Namibie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Angola et en Namibie. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore, nocturne et terrestre.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vivian Frederick Maynard FitzSimons[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vivian Frederick Maynard FitzSimons.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite comme une sous-espèce sous le nom de Pachydactylus laevigatus tesselatus ce nom étant préoccupé, elle a été renommée Pachydactylus laevigatus fitzsimonsi. Par la suite elle élevé au rang d'espèce[3] puis transférée dans le genre Chondrodactylus[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite comme une sous-espèce sous le nom de Pachydactylus laevigatus tesselatus ce nom étant préoccupé, elle a été renommée Pachydactylus laevigatus fitzsimonsi. Par la suite elle élevé au rang d'espèce puis transférée dans le genre Chondrodactylus
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>FitzSimons, 1938 : Transvaal Museum Expedition to South-West Africa and Little Namaqualand, May to August 1937 - Reptiles and Amphibians. Annals of the Transvaal Museum, vol. 19, n. 2, p. 153-209 (texte intégral).
 Loveridge, 1947 : Revision of the African lizards of the family Gekkonidae. Bulletin of the Museum of Comparative Zoology, vol. 98, n. 1, p. 1-46 (texte intégral).</t>
